--- a/tournamentMaker.xlsx
+++ b/tournamentMaker.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t/>
   </si>
@@ -39,6 +39,121 @@
     <t>Last 5</t>
   </si>
   <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>FC Barcelona</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <color indexed="12"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <color indexed="12"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <color indexed="17"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
     <t>AC Milan</t>
   </si>
   <si>
@@ -47,11 +162,11 @@
     </r>
     <r>
       <rPr>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>W</t>
+        <color indexed="12"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>D</t>
     </r>
     <r>
       <t xml:space="preserve"> </t>
@@ -69,18 +184,18 @@
     </r>
     <r>
       <rPr>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>FC Barcelona</t>
+        <color indexed="12"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Bayern Munich</t>
   </si>
   <si>
     <r>
@@ -88,6 +203,17 @@
     </r>
     <r>
       <rPr>
+        <color indexed="10"/>
+        <sz val="11.0"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
         <color indexed="12"/>
         <sz val="11.0"/>
         <rFont val="Calibri"/>
@@ -97,6 +223,14 @@
     <r>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>Ajax Amsterdam</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
     <r>
       <rPr>
         <color indexed="12"/>
@@ -110,47 +244,6 @@
     </r>
     <r>
       <rPr>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <color indexed="17"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
         <color indexed="10"/>
         <sz val="11.0"/>
         <rFont val="Calibri"/>
@@ -162,180 +255,73 @@
     </r>
   </si>
   <si>
-    <t>Manchester United</t>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <color indexed="10"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Ajax Amsterdam</t>
-  </si>
-  <si>
-    <t>Bayern Munich</t>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <color indexed="10"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>Player</t>
   </si>
   <si>
     <t>Goals</t>
   </si>
   <si>
+    <t>Luka Modric</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo</t>
+  </si>
+  <si>
+    <t>Bruno Fernandes</t>
+  </si>
+  <si>
+    <t>Sergio Ramos</t>
+  </si>
+  <si>
+    <t>Alessio Romagnoli</t>
+  </si>
+  <si>
+    <t>Lionel Messi</t>
+  </si>
+  <si>
+    <t>Andrés Iniesta</t>
+  </si>
+  <si>
+    <t>Harry Maguire</t>
+  </si>
+  <si>
+    <t>Pierre-Emerick Aubameyang</t>
+  </si>
+  <si>
+    <t>Dusan Tadic</t>
+  </si>
+  <si>
+    <t>Yellow cards</t>
+  </si>
+  <si>
     <t>Zlatan Ibrahimović</t>
   </si>
   <si>
     <t>Franck Kessié</t>
   </si>
   <si>
-    <t>Andrés Iniesta</t>
-  </si>
-  <si>
-    <t>Cristiano Ronaldo</t>
-  </si>
-  <si>
-    <t>Luka Modric</t>
-  </si>
-  <si>
-    <t>Bruno Fernandes</t>
-  </si>
-  <si>
-    <t>Leon Goretzka</t>
-  </si>
-  <si>
-    <t>Alessio Romagnoli</t>
-  </si>
-  <si>
-    <t>Robert Lewandowski</t>
-  </si>
-  <si>
-    <t>Lionel Messi</t>
-  </si>
-  <si>
-    <t>Yellow cards</t>
-  </si>
-  <si>
-    <t>Pierre-Emerick Aubameyang</t>
-  </si>
-  <si>
     <t>Wayne Rooney</t>
   </si>
   <si>
-    <t>Dusan Tadic</t>
-  </si>
-  <si>
     <t>Bukayo Saka</t>
   </si>
   <si>
+    <t>David Neres</t>
+  </si>
+  <si>
+    <t>Gabriel Magalhães</t>
+  </si>
+  <si>
     <t>Red cards</t>
   </si>
   <si>
     <t>Clean sheets</t>
   </si>
   <si>
-    <t>Mike Maignan</t>
-  </si>
-  <si>
-    <t>André Onana</t>
+    <t>Thibaut Courtois</t>
   </si>
   <si>
     <t>Bernd Leno</t>
-  </si>
-  <si>
-    <t>Victor Valdes</t>
-  </si>
-  <si>
-    <t>David De Gea</t>
   </si>
 </sst>
 </file>
@@ -359,11 +345,26 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="17"/>
     </font>
     <font>
@@ -384,47 +385,32 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
       <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -628,16 +614,16 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -645,25 +631,25 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -671,10 +657,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0.0</v>
@@ -683,13 +669,13 @@
         <v>2.0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -697,7 +683,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.0</v>
@@ -706,16 +692,16 @@
         <v>0.0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -806,16 +792,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>3.0</v>
@@ -832,13 +818,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>2.0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>10</v>
@@ -855,19 +841,19 @@
         <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>3.0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>2.0</v>
@@ -881,7 +867,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>3.0</v>
@@ -890,10 +876,10 @@
         <v>4.0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>2.0</v>
@@ -907,7 +893,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>3.0</v>
@@ -916,10 +902,10 @@
         <v>5.0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I6" s="4" t="n">
         <v>2.0</v>
@@ -933,19 +919,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>6.0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" s="4" t="n">
         <v>2.0</v>
@@ -959,22 +945,22 @@
         <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>7.0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -985,7 +971,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>2.0</v>
@@ -994,10 +980,10 @@
         <v>8.0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I9" s="4" t="n">
         <v>1.0</v>
@@ -1011,19 +997,19 @@
         <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>9.0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>1.0</v>
@@ -1037,7 +1023,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>1.0</v>
@@ -1046,10 +1032,10 @@
         <v>10.0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>1.0</v>
@@ -1067,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>0</v>
@@ -1079,27 +1065,15 @@
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F14" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>8</v>
@@ -1109,73 +1083,22 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>1.0</v>
-      </c>
       <c r="F15" s="4" t="n">
         <v>2.0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>1.0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="F16" s="4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17" s="4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="F18" s="4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="4" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
     <row r="19"/>
     <row r="20"/>
     <row r="21"/>
